--- a/Hand_Gesture_List.xlsx
+++ b/Hand_Gesture_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UNI\2022 SEM1\EGH400-1\Mediapipe\Data_Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75B1B7-66A0-460F-9DA2-DD893347A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9809D1-0D0C-4C60-8825-1503DE357F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B87B3B-8900-4E69-A7C5-D8892283DCDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5B87B3B-8900-4E69-A7C5-D8892283DCDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Stop</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Thumbs Up</t>
-  </si>
-  <si>
-    <t>Thumb Down</t>
   </si>
   <si>
     <t>Get Gestures</t>
@@ -454,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656DCEB9-7D44-4D39-A8CD-213DB37968D7}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,12 +518,6 @@
       <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
       <c r="Q1">
         <v>16</v>
       </c>
@@ -566,46 +557,40 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
         <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -615,41 +600,41 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
       <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -660,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -678,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
@@ -693,12 +678,6 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
         <v>3</v>
       </c>
     </row>
